--- a/src/test/resources/merge.xlsx
+++ b/src/test/resources/merge.xlsx
@@ -200,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,6 +229,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G10"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -623,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -639,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -675,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:7">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -695,10 +698,49 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10">
+        <f>A13 * 2</f>
+        <v>246</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E5:F8"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
